--- a/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.101</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.101</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -208,9 +214,6 @@
   </si>
   <si>
     <t>Transport des dispositifs médicaux</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -456,20 +459,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -491,178 +502,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,148 +72,145 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Liste de types d'évènement pour lesquels une notification est possible</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Admission d'un patient dans un établissement de santé</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Autorisation de paiement de la facture des dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>CDM</t>
+  </si>
+  <si>
+    <t>Commande de dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Demande de dispositifs médicaux à la pharmacie de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>Délivrance des dispositifs médicaux au service en charge de la pose chez le patient</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>Dépôt de document pour un patient</t>
+  </si>
+  <si>
+    <t>ECH</t>
+  </si>
+  <si>
+    <t>Echec de pose du dispositif médical</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>Entrée de stock des dispositifs médicaux au sein de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>NCO</t>
+  </si>
+  <si>
+    <t>Dispositif médical non-conforme, présentant un risque inacceptable pour la santé et la sécurité</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Création d'une note pour un patient dans le cahier de liaison</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Dispositif médical périmé</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Pose du dispositif médical</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>Demande de réassort en dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>Réception valide du dispositif médical par l'établissement de santé</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Réponse de la pharmacie de l'établissement de santé au service responsable de la demande</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>Suppression de la demande de dispositif médicaux</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>Sortie d'un patient de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Sortie de stock des dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>Transport des dispositifs médicaux</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Liste de types d'évènement pour lesquels une notification est possible</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>Admission d'un patient dans un établissement de santé</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Autorisation de paiement de la facture des dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>CDM</t>
-  </si>
-  <si>
-    <t>Commande de dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>Demande de dispositifs médicaux à la pharmacie de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>Délivrance des dispositifs médicaux au service en charge de la pose chez le patient</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Dépôt de document pour un patient</t>
-  </si>
-  <si>
-    <t>ECH</t>
-  </si>
-  <si>
-    <t>Echec de pose du dispositif médical</t>
-  </si>
-  <si>
-    <t>ESD</t>
-  </si>
-  <si>
-    <t>Entrée de stock des dispositifs médicaux au sein de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>NCO</t>
-  </si>
-  <si>
-    <t>Dispositif médical non-conforme, présentant un risque inacceptable pour la santé et la sécurité</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>Création d'une note pour un patient dans le cahier de liaison</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>Dispositif médical périmé</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Pose du dispositif médical</t>
-  </si>
-  <si>
-    <t>REA</t>
-  </si>
-  <si>
-    <t>Demande de réassort en dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>Réception valide du dispositif médical par l'établissement de santé</t>
-  </si>
-  <si>
-    <t>REP</t>
-  </si>
-  <si>
-    <t>Réponse de la pharmacie de l'établissement de santé au service responsable de la demande</t>
-  </si>
-  <si>
-    <t>SDM</t>
-  </si>
-  <si>
-    <t>Suppression de la demande de dispositif médicaux</t>
-  </si>
-  <si>
-    <t>SOR</t>
-  </si>
-  <si>
-    <t>Sortie d'un patient de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Sortie de stock des dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>Transport des dispositifs médicaux</t>
   </si>
   <si>
     <t>System URI</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -459,28 +456,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -502,178 +491,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,145 +75,142 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Liste de types d'évènement pour lesquels une notification est possible</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Admission d'un patient dans un établissement de santé</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Autorisation de paiement de la facture des dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>CDM</t>
+  </si>
+  <si>
+    <t>Commande de dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Demande de dispositifs médicaux à la pharmacie de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>Délivrance des dispositifs médicaux au service en charge de la pose chez le patient</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>Dépôt de document pour un patient</t>
+  </si>
+  <si>
+    <t>ECH</t>
+  </si>
+  <si>
+    <t>Echec de pose du dispositif médical</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>Entrée de stock des dispositifs médicaux au sein de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>NCO</t>
+  </si>
+  <si>
+    <t>Dispositif médical non-conforme, présentant un risque inacceptable pour la santé et la sécurité</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Création d'une note pour un patient dans le cahier de liaison</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Dispositif médical périmé</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Pose du dispositif médical</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>Demande de réassort en dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>Réception valide du dispositif médical par l'établissement de santé</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Réponse de la pharmacie de l'établissement de santé au service responsable de la demande</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>Suppression de la demande de dispositif médicaux</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>Sortie d'un patient de l'établissement de santé</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Sortie de stock des dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>Transport des dispositifs médicaux</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Liste de types d'évènement pour lesquels une notification est possible</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>Admission d'un patient dans un établissement de santé</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Autorisation de paiement de la facture des dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>CDM</t>
-  </si>
-  <si>
-    <t>Commande de dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>Demande de dispositifs médicaux à la pharmacie de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>Délivrance des dispositifs médicaux au service en charge de la pose chez le patient</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Dépôt de document pour un patient</t>
-  </si>
-  <si>
-    <t>ECH</t>
-  </si>
-  <si>
-    <t>Echec de pose du dispositif médical</t>
-  </si>
-  <si>
-    <t>ESD</t>
-  </si>
-  <si>
-    <t>Entrée de stock des dispositifs médicaux au sein de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>NCO</t>
-  </si>
-  <si>
-    <t>Dispositif médical non-conforme, présentant un risque inacceptable pour la santé et la sécurité</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>Création d'une note pour un patient dans le cahier de liaison</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>Dispositif médical périmé</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Pose du dispositif médical</t>
-  </si>
-  <si>
-    <t>REA</t>
-  </si>
-  <si>
-    <t>Demande de réassort en dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>Réception valide du dispositif médical par l'établissement de santé</t>
-  </si>
-  <si>
-    <t>REP</t>
-  </si>
-  <si>
-    <t>Réponse de la pharmacie de l'établissement de santé au service responsable de la demande</t>
-  </si>
-  <si>
-    <t>SDM</t>
-  </si>
-  <si>
-    <t>Suppression de la demande de dispositif médicaux</t>
-  </si>
-  <si>
-    <t>SOR</t>
-  </si>
-  <si>
-    <t>Sortie d'un patient de l'établissement de santé</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Sortie de stock des dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>Transport des dispositifs médicaux</t>
   </si>
   <si>
     <t>System URI</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -459,28 +456,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -502,178 +491,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J46-TypeEvenementNotification-CISIS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
